--- a/data/trans_orig/RUIDO_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Estudios-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4863</v>
+        <v>5820</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003334807608493973</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01162069433031166</v>
+        <v>0.01390909709605394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4941</v>
+        <v>4723</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001963737255644942</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006953726969022495</v>
+        <v>0.006646634897765646</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7473</v>
+        <v>7693</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005173537962926447</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02557992321168024</v>
+        <v>0.02633227390711931</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6847</v>
+        <v>9736</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002127044601385807</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.009635713927331169</v>
+        <v>0.01370111866599175</v>
       </c>
     </row>
     <row r="6">
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4009</v>
+        <v>4195</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.001690272043405538</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.00958001621737626</v>
+        <v>0.0100240280488845</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3994</v>
+        <v>3567</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0009953348359156347</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.005620938939405212</v>
+        <v>0.005019789479955051</v>
       </c>
     </row>
     <row r="7">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6637</v>
+        <v>6710</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007468837928415691</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02271664353487525</v>
+        <v>0.02296824084579477</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3868</v>
+        <v>3920</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002521575092066616</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.009244678196280694</v>
+        <v>0.009366723830272036</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1019,19 +1019,19 @@
         <v>3237</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8173</v>
+        <v>8234</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00455558910396738</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0014210641128709</v>
+        <v>0.001396697489559808</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01150175319049722</v>
+        <v>0.01158715225759283</v>
       </c>
     </row>
     <row r="9">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4589</v>
+        <v>4625</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003120346804229912</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01570870630868034</v>
+        <v>0.01582866810147075</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4625</v>
+        <v>4665</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001282897095169736</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.006508343345360788</v>
+        <v>0.006564107628163918</v>
       </c>
     </row>
     <row r="10">
@@ -1111,19 +1111,19 @@
         <v>2893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8057</v>
+        <v>9079</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009903656037507888</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002248961456272405</v>
+        <v>0.002301037305686697</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02757622838938144</v>
+        <v>0.03107427471609495</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1132,19 +1132,19 @@
         <v>3072</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1316</v>
+        <v>1342</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7041</v>
+        <v>6432</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.007340471442760117</v>
+        <v>0.007340471442760119</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003145581670157823</v>
+        <v>0.003208228402319459</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01682577104100547</v>
+        <v>0.01537012626860341</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1153,19 +1153,19 @@
         <v>5965</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2759</v>
+        <v>2800</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11903</v>
+        <v>12069</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008394297276006647</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003881970076866089</v>
+        <v>0.003940977939211852</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01674996873651934</v>
+        <v>0.01698368709383382</v>
       </c>
     </row>
     <row r="11">
@@ -1182,19 +1182,19 @@
         <v>2712</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7320</v>
+        <v>7830</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009281146841115502</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002433275126120299</v>
+        <v>0.002427085912674828</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02505538853334925</v>
+        <v>0.02680164909820586</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4267</v>
+        <v>4383</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002951400931951243</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01019635505675197</v>
+        <v>0.01047489961069093</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1224,19 +1224,19 @@
         <v>3947</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1271</v>
+        <v>1403</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9429</v>
+        <v>8639</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00555380801984974</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001788764863867355</v>
+        <v>0.001974563855857716</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01326827102694354</v>
+        <v>0.01215770874099812</v>
       </c>
     </row>
     <row r="12">
@@ -1253,19 +1253,19 @@
         <v>10781</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5183</v>
+        <v>5392</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20716</v>
+        <v>21532</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03690218074130425</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01773872356652645</v>
+        <v>0.01845669528227488</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07090529089487789</v>
+        <v>0.07369786776661015</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -1274,19 +1274,19 @@
         <v>10845</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7099</v>
+        <v>6987</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15804</v>
+        <v>15917</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02591634444882171</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0169652732759454</v>
+        <v>0.01669694165215816</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03776864846794299</v>
+        <v>0.0380371401852858</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>33</v>
@@ -1295,19 +1295,19 @@
         <v>21626</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14795</v>
+        <v>14348</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>32404</v>
+        <v>31666</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03043305311996391</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02082070802870056</v>
+        <v>0.02019164011427331</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0456008065624984</v>
+        <v>0.04456219748976511</v>
       </c>
     </row>
     <row r="13">
@@ -1324,19 +1324,19 @@
         <v>9868</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5028</v>
+        <v>5704</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16679</v>
+        <v>16842</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03377637375349662</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01720993684064542</v>
+        <v>0.01952395387370207</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05708944088837102</v>
+        <v>0.05764660197364053</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1345,19 +1345,19 @@
         <v>22233</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14841</v>
+        <v>15466</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32795</v>
+        <v>33235</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05313123333468042</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03546594949514772</v>
+        <v>0.03696046494340579</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07837241667478988</v>
+        <v>0.07942468545996528</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -1366,19 +1366,19 @@
         <v>32101</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23311</v>
+        <v>23217</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43705</v>
+        <v>44844</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04517369057037642</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.032804623770581</v>
+        <v>0.03267154688224093</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06150283003957592</v>
+        <v>0.06310597679894835</v>
       </c>
     </row>
     <row r="14">
@@ -1395,19 +1395,19 @@
         <v>261300</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>249049</v>
+        <v>248741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>270915</v>
+        <v>270607</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8943739199310036</v>
+        <v>0.8943739199310037</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8524394696541533</v>
+        <v>0.8513878755091403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9272844165000165</v>
+        <v>0.9262273989317819</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>662</v>
@@ -1416,19 +1416,19 @@
         <v>377908</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>366996</v>
+        <v>366022</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386968</v>
+        <v>387391</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9031138950978204</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8770369664789825</v>
+        <v>0.8747088724951917</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9247641037972382</v>
+        <v>0.9257757731127566</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>981</v>
@@ -1437,19 +1437,19 @@
         <v>639208</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>622987</v>
+        <v>623466</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>653195</v>
+        <v>654084</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8995205481217197</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8766937927328504</v>
+        <v>0.8773677542667846</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9192032963580006</v>
+        <v>0.9204544525400095</v>
       </c>
     </row>
     <row r="15">
@@ -1541,19 +1541,19 @@
         <v>4274</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>960</v>
+        <v>1325</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10002</v>
+        <v>10193</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.003683600515820677</v>
+        <v>0.003683600515820678</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0008276723546020745</v>
+        <v>0.001142257650217542</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00862008922902696</v>
+        <v>0.008784938050601552</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1562,19 +1562,19 @@
         <v>2725</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6142</v>
+        <v>6446</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.002540880654301994</v>
+        <v>0.002540880654301993</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0006529347683406473</v>
+        <v>0.0006423826424148977</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0057283046426591</v>
+        <v>0.00601119181079034</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1583,19 +1583,19 @@
         <v>6999</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3047</v>
+        <v>3181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14274</v>
+        <v>13291</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.003134763768083392</v>
+        <v>0.003134763768083393</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001364855750758348</v>
+        <v>0.001424931579647566</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006393637060594328</v>
+        <v>0.005953296829152382</v>
       </c>
     </row>
     <row r="17">
@@ -1612,19 +1612,19 @@
         <v>9026</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4300</v>
+        <v>3968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20299</v>
+        <v>18431</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007779448930375399</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00370578674745912</v>
+        <v>0.00342014150671562</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01749534349852951</v>
+        <v>0.01588533135583194</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1633,19 +1633,19 @@
         <v>3560</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1395</v>
+        <v>1378</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7945</v>
+        <v>8135</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.003320382903885661</v>
+        <v>0.00332038290388566</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001301105090134701</v>
+        <v>0.001285339867063094</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.00740931565626461</v>
+        <v>0.007587157312124879</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1654,19 +1654,19 @@
         <v>12587</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6552</v>
+        <v>6798</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22379</v>
+        <v>23299</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.005637804789639129</v>
+        <v>0.00563780478963913</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002934599997996591</v>
+        <v>0.003045120053196445</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01002389158325573</v>
+        <v>0.01043604539096801</v>
       </c>
     </row>
     <row r="18">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6469</v>
+        <v>6672</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.001024351880830132</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.005575386104059296</v>
+        <v>0.005750656000306434</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1707,16 +1707,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3784</v>
+        <v>3464</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.0006454311294974191</v>
+        <v>0.000645431129497419</v>
       </c>
       <c r="O18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.003528820606701851</v>
+        <v>0.003230642764685609</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1728,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6620</v>
+        <v>6705</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.0008423600910530405</v>
+        <v>0.0008423600910530408</v>
       </c>
       <c r="V18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.002965392311193065</v>
+        <v>0.003003114071182696</v>
       </c>
     </row>
     <row r="19">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5515</v>
+        <v>5420</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001012511879477945</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.005143667284725819</v>
+        <v>0.005054792758561149</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1791,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6787</v>
+        <v>6233</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0004862991759323297</v>
+        <v>0.0004862991759323298</v>
       </c>
       <c r="V19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.003039943931904401</v>
+        <v>0.002791706400132727</v>
       </c>
     </row>
     <row r="20">
@@ -1817,19 +1817,19 @@
         <v>8111</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3831</v>
+        <v>3847</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16354</v>
+        <v>15836</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006990554380794495</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00330149567902556</v>
+        <v>0.003315565842859872</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01409450761056838</v>
+        <v>0.01364807032411926</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -1838,19 +1838,19 @@
         <v>9273</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4967</v>
+        <v>5254</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15928</v>
+        <v>15949</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.008647833613296539</v>
+        <v>0.008647833613296537</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004632338257597127</v>
+        <v>0.004900323460695521</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01485447874516844</v>
+        <v>0.01487442081731041</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -1859,19 +1859,19 @@
         <v>17384</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10804</v>
+        <v>10943</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27075</v>
+        <v>26589</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.007786528770221956</v>
+        <v>0.007786528770221957</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004839510605227948</v>
+        <v>0.00490174452132795</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01212748704444098</v>
+        <v>0.01190955139628713</v>
       </c>
     </row>
     <row r="21">
@@ -1888,19 +1888,19 @@
         <v>13124</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5341</v>
+        <v>6110</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30514</v>
+        <v>30029</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01131092472694102</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00460294949865262</v>
+        <v>0.005265816680697292</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02629928700794873</v>
+        <v>0.02588060225169571</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1909,19 +1909,19 @@
         <v>5435</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2238</v>
+        <v>2097</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11750</v>
+        <v>10524</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.005068489246920092</v>
+        <v>0.00506848924692009</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.002087238047578241</v>
+        <v>0.001955834587895687</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0109576092895921</v>
+        <v>0.009814846234265377</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -1930,19 +1930,19 @@
         <v>18559</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10174</v>
+        <v>11266</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>35251</v>
+        <v>38667</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.008312746343779598</v>
+        <v>0.008312746343779601</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004557203393650645</v>
+        <v>0.005046132109547351</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01578938506121583</v>
+        <v>0.01731972016550268</v>
       </c>
     </row>
     <row r="22">
@@ -1959,19 +1959,19 @@
         <v>24398</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13437</v>
+        <v>13318</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42841</v>
+        <v>42952</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02102802908205526</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01158085713589904</v>
+        <v>0.01147826257721056</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03692319925203497</v>
+        <v>0.03701838895856566</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -1980,19 +1980,19 @@
         <v>30427</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20530</v>
+        <v>20555</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45426</v>
+        <v>45240</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02837582759423412</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01914645319061977</v>
+        <v>0.01916979094939385</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04236396124368803</v>
+        <v>0.04219068881272698</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -2001,19 +2001,19 @@
         <v>54825</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>39626</v>
+        <v>38935</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>78459</v>
+        <v>75391</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02455710210708658</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01774932927572697</v>
+        <v>0.0174396952379763</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0351434027762015</v>
+        <v>0.03376905815413417</v>
       </c>
     </row>
     <row r="23">
@@ -2030,19 +2030,19 @@
         <v>23600</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14357</v>
+        <v>14274</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>40105</v>
+        <v>39359</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02033961575268881</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01237361866613351</v>
+        <v>0.01230197093642593</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03456525860727526</v>
+        <v>0.03392230079305066</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -2051,19 +2051,19 @@
         <v>12893</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7458</v>
+        <v>8378</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19223</v>
+        <v>19883</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01202359838870837</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006955801473883687</v>
+        <v>0.007812885729048296</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01792728976275256</v>
+        <v>0.01854306684400682</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>39</v>
@@ -2072,19 +2072,19 @@
         <v>36492</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>26228</v>
+        <v>25811</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>52792</v>
+        <v>52476</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01634551704322204</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01174790234009404</v>
+        <v>0.01156126411965444</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02364666981947653</v>
+        <v>0.02350509021192687</v>
       </c>
     </row>
     <row r="24">
@@ -2101,19 +2101,19 @@
         <v>71943</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53766</v>
+        <v>54067</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>97088</v>
+        <v>96290</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06200506361251982</v>
+        <v>0.06200506361251983</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04633890174989533</v>
+        <v>0.04659875493145457</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08367691054230758</v>
+        <v>0.08298862126720878</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>76</v>
@@ -2122,19 +2122,19 @@
         <v>55390</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>42915</v>
+        <v>42502</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>68372</v>
+        <v>71813</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05165717357588383</v>
+        <v>0.05165717357588381</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04002262195774219</v>
+        <v>0.03963706465779977</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06376417899193644</v>
+        <v>0.06697268555164204</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>129</v>
@@ -2143,19 +2143,19 @@
         <v>127333</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>104460</v>
+        <v>105398</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>154077</v>
+        <v>156447</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05703507708747375</v>
+        <v>0.05703507708747377</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04678942774259091</v>
+        <v>0.04720997228732458</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06901407069431104</v>
+        <v>0.07007554812635924</v>
       </c>
     </row>
     <row r="25">
@@ -2172,19 +2172,19 @@
         <v>119300</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>97272</v>
+        <v>98678</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>141244</v>
+        <v>142084</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1028201124431152</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08383509837944676</v>
+        <v>0.08504663231166573</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1217330009300486</v>
+        <v>0.1224568697632443</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>195</v>
@@ -2193,19 +2193,19 @@
         <v>126397</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>109406</v>
+        <v>107617</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>148016</v>
+        <v>146060</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.117878483572093</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1020325795184426</v>
+        <v>0.1003641925626712</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1380401256630963</v>
+        <v>0.1362157452393762</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>324</v>
@@ -2214,19 +2214,19 @@
         <v>245697</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>218268</v>
+        <v>214553</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>278095</v>
+        <v>273262</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1100524952124717</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09776633432878006</v>
+        <v>0.09610228178180608</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1245639746402525</v>
+        <v>0.122399394768886</v>
       </c>
     </row>
     <row r="26">
@@ -2243,19 +2243,19 @@
         <v>885313</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>850948</v>
+        <v>850164</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>919129</v>
+        <v>918934</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7630182986748594</v>
+        <v>0.7630182986748593</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7334010615428079</v>
+        <v>0.732725161143097</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7921635305504526</v>
+        <v>0.7919957469581138</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1132</v>
@@ -2264,19 +2264,19 @@
         <v>824392</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>798385</v>
+        <v>796216</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>848340</v>
+        <v>849324</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.768829387441701</v>
+        <v>0.7688293874417009</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7445755879125342</v>
+        <v>0.7425523781278953</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7911631094620465</v>
+        <v>0.7920813366903319</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1947</v>
@@ -2285,19 +2285,19 @@
         <v>1709705</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1665323</v>
+        <v>1660588</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1751882</v>
+        <v>1749857</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7658093056110364</v>
+        <v>0.7658093056110366</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7459296759704689</v>
+        <v>0.7438086848425335</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7847010926427371</v>
+        <v>0.7837941322032144</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>7301</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2940</v>
+        <v>3153</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15898</v>
+        <v>16426</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02106098612967329</v>
+        <v>0.02106098612967328</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008482182598334996</v>
+        <v>0.009096837278138901</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04586053329877538</v>
+        <v>0.04738537557859931</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2410,19 +2410,19 @@
         <v>3496</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1177</v>
+        <v>861</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10006</v>
+        <v>9967</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.009613270933359024</v>
+        <v>0.009613270933359027</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003237034857333313</v>
+        <v>0.00236880411208159</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02751726989037396</v>
+        <v>0.02740949178606049</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -2431,19 +2431,19 @@
         <v>10796</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5053</v>
+        <v>5062</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20293</v>
+        <v>19525</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.01520032486403408</v>
+        <v>0.01520032486403409</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007114732534244068</v>
+        <v>0.007127072286686124</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02856997204055021</v>
+        <v>0.02748923468810853</v>
       </c>
     </row>
     <row r="29">
@@ -2460,19 +2460,19 @@
         <v>4974</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1706</v>
+        <v>1776</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10832</v>
+        <v>11027</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01434992561165856</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004921496182968399</v>
+        <v>0.00512227535944508</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03124886181429299</v>
+        <v>0.03180856154089102</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -2481,19 +2481,19 @@
         <v>6781</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3353</v>
+        <v>3164</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11957</v>
+        <v>12723</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01864778509073254</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009220369886861304</v>
+        <v>0.008700841533722881</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03288262495059679</v>
+        <v>0.03498821699238149</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>14</v>
@@ -2502,19 +2502,19 @@
         <v>11755</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6920</v>
+        <v>6776</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21048</v>
+        <v>19869</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.01655021607505852</v>
+        <v>0.01655021607505853</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009742247798488252</v>
+        <v>0.009539435499524433</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02963360511200536</v>
+        <v>0.02797333123517667</v>
       </c>
     </row>
     <row r="30">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8697</v>
+        <v>9632</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.007963785675021911</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02508955977058327</v>
+        <v>0.02778523874413712</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8037</v>
+        <v>7129</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003292519364067418</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02210136831050546</v>
+        <v>0.01960585637033138</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2573,19 +2573,19 @@
         <v>3958</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11530</v>
+        <v>12185</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.005572329470825758</v>
+        <v>0.005572329470825759</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001580229485412192</v>
+        <v>0.001575036824177257</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01623240166004533</v>
+        <v>0.01715510283088594</v>
       </c>
     </row>
     <row r="31">
@@ -2618,16 +2618,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4878</v>
+        <v>4733</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.004190776422786156</v>
+        <v>0.004190776422786157</v>
       </c>
       <c r="O31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01341498304914639</v>
+        <v>0.013015855892102</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5383</v>
+        <v>5225</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.002145469260266406</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.007578837909615572</v>
+        <v>0.007356351407698243</v>
       </c>
     </row>
     <row r="32">
@@ -2665,19 +2665,19 @@
         <v>5085</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13161</v>
+        <v>12545</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.014667702307389</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0033201604825902</v>
+        <v>0.003362260046433744</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03796561307719228</v>
+        <v>0.03618986050283086</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -2686,19 +2686,19 @@
         <v>6281</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2918</v>
+        <v>2830</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12453</v>
+        <v>12542</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.01727330314483726</v>
+        <v>0.01727330314483727</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008024867331048891</v>
+        <v>0.00778367391562976</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03424729507154128</v>
+        <v>0.03449195626619567</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>13</v>
@@ -2707,19 +2707,19 @@
         <v>11366</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5848</v>
+        <v>6175</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>20215</v>
+        <v>21016</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0160016404461249</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00823318237550421</v>
+        <v>0.008694184247451267</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02846107743404222</v>
+        <v>0.02958793050638042</v>
       </c>
     </row>
     <row r="33">
@@ -2736,19 +2736,19 @@
         <v>5168</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1767</v>
+        <v>1744</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>11501</v>
+        <v>11212</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01490709301408865</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.00509842454062207</v>
+        <v>0.005029558628453089</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03317870639382693</v>
+        <v>0.03234360905423896</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>7</v>
@@ -2757,19 +2757,19 @@
         <v>5005</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2036</v>
+        <v>1959</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10253</v>
+        <v>10069</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01376308595523187</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.005599709459940221</v>
+        <v>0.005386275283091254</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02819614940889235</v>
+        <v>0.02769155177726563</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>12</v>
@@ -2778,19 +2778,19 @@
         <v>10172</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5304</v>
+        <v>5076</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>17779</v>
+        <v>17054</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01432141825345009</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.007466781516766111</v>
+        <v>0.007146269449636163</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02503144385867183</v>
+        <v>0.02400970408315083</v>
       </c>
     </row>
     <row r="34">
@@ -2807,19 +2807,19 @@
         <v>6989</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3250</v>
+        <v>3474</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13788</v>
+        <v>13056</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02016102042860003</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.009376211389374728</v>
+        <v>0.01002170272290423</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0397754709446741</v>
+        <v>0.03766297631720002</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -2828,19 +2828,19 @@
         <v>12013</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6858</v>
+        <v>6766</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>24078</v>
+        <v>21406</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.0330368546802485</v>
+        <v>0.03303685468024851</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01885965766307767</v>
+        <v>0.01860694398633226</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06621498995875286</v>
+        <v>0.05886893260096832</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>21</v>
@@ -2849,19 +2849,19 @@
         <v>19002</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>11903</v>
+        <v>12167</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>29620</v>
+        <v>29925</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02675280767761565</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01675844922859446</v>
+        <v>0.01712930062539826</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04170201677358118</v>
+        <v>0.04213137238053648</v>
       </c>
     </row>
     <row r="35">
@@ -2878,19 +2878,19 @@
         <v>8093</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3509</v>
+        <v>4230</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14883</v>
+        <v>15390</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02334593782280702</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01012390016872259</v>
+        <v>0.01220152617707554</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0429349565372051</v>
+        <v>0.04439620388907427</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>8</v>
@@ -2899,19 +2899,19 @@
         <v>4754</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2050</v>
+        <v>2120</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8874</v>
+        <v>8828</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01307361528129252</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005638997175154568</v>
+        <v>0.005830325081091148</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02440289693632733</v>
+        <v>0.02427787216394829</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>17</v>
@@ -2920,19 +2920,19 @@
         <v>12847</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7891</v>
+        <v>7878</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>21361</v>
+        <v>20432</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01808701918316533</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01110916715885259</v>
+        <v>0.01109167017510733</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03007411745077168</v>
+        <v>0.02876638844023056</v>
       </c>
     </row>
     <row r="36">
@@ -2949,19 +2949,19 @@
         <v>16940</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9468</v>
+        <v>9503</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>30311</v>
+        <v>30684</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04886677844871629</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02731153152282684</v>
+        <v>0.02741471216327496</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08743869798677877</v>
+        <v>0.08851405044899768</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>33</v>
@@ -2970,19 +2970,19 @@
         <v>21305</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14831</v>
+        <v>14829</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>30013</v>
+        <v>30260</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.05859041559635201</v>
+        <v>0.05859041559635202</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04078628292053413</v>
+        <v>0.04078116268729329</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08253783594004671</v>
+        <v>0.08321821244339778</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>48</v>
@@ -2991,19 +2991,19 @@
         <v>38245</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>28010</v>
+        <v>27870</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>52622</v>
+        <v>54499</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05384479743460326</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03943487724553803</v>
+        <v>0.03923829884975209</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07408685815636694</v>
+        <v>0.07672862320090658</v>
       </c>
     </row>
     <row r="37">
@@ -3020,19 +3020,19 @@
         <v>72569</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>58746</v>
+        <v>59308</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>89258</v>
+        <v>90095</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.2093424297731837</v>
+        <v>0.2093424297731838</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1694667250999709</v>
+        <v>0.1710866295832538</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2574855741969812</v>
+        <v>0.2599018090758934</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>86</v>
@@ -3041,19 +3041,19 @@
         <v>47777</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>38597</v>
+        <v>38473</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>58862</v>
+        <v>59422</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1313891574192143</v>
+        <v>0.1313891574192144</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1061437531345622</v>
+        <v>0.1058029702132026</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1618728702430839</v>
+        <v>0.1634146652091154</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>171</v>
@@ -3062,19 +3062,19 @@
         <v>120346</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>103320</v>
+        <v>103272</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>141035</v>
+        <v>139710</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1694342283565532</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.145463682608965</v>
+        <v>0.1453965672805078</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1985626701808376</v>
+        <v>0.1966963786349434</v>
       </c>
     </row>
     <row r="38">
@@ -3091,19 +3091,19 @@
         <v>216773</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>198324</v>
+        <v>196344</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>233813</v>
+        <v>233246</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.6253343407888613</v>
+        <v>0.6253343407888614</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5721124647872725</v>
+        <v>0.5664013150256358</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6744897320539964</v>
+        <v>0.6728546658625369</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>351</v>
@@ -3112,19 +3112,19 @@
         <v>253496</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>237948</v>
+        <v>236640</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>268117</v>
+        <v>266453</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.6971292161118782</v>
+        <v>0.6971292161118784</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6543713791044503</v>
+        <v>0.650775695837011</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7373397489676861</v>
+        <v>0.7327618610304597</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>559</v>
@@ -3133,19 +3133,19 @@
         <v>470269</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>444942</v>
+        <v>445633</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>494375</v>
+        <v>494227</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6620897489783028</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6264320556684246</v>
+        <v>0.6274043152874795</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6960277568169267</v>
+        <v>0.6958206319177958</v>
       </c>
     </row>
     <row r="39">
@@ -3237,19 +3237,19 @@
         <v>11575</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5992</v>
+        <v>5910</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>20678</v>
+        <v>21607</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.006433719895851398</v>
+        <v>0.006433719895851397</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003330726651015262</v>
+        <v>0.003285065573662571</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01149360627378798</v>
+        <v>0.01200993888660178</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>10</v>
@@ -3258,19 +3258,19 @@
         <v>7616</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3776</v>
+        <v>3798</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>14629</v>
+        <v>14879</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.004106897542897797</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.00203604181615056</v>
+        <v>0.002048215586904178</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.007889119446636972</v>
+        <v>0.008023720226953978</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>20</v>
@@ -3279,19 +3279,19 @@
         <v>19190</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>11866</v>
+        <v>11805</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>29911</v>
+        <v>30398</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.005252711849912492</v>
+        <v>0.005252711849912493</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003247819747484349</v>
+        <v>0.00323109513697616</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008187018251529199</v>
+        <v>0.008320430845412901</v>
       </c>
     </row>
     <row r="41">
@@ -3308,19 +3308,19 @@
         <v>15512</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8888</v>
+        <v>8846</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>27028</v>
+        <v>27362</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008622280039928324</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004940325592827875</v>
+        <v>0.00491720117609124</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0150230894209508</v>
+        <v>0.01520859622813143</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>14</v>
@@ -3329,19 +3329,19 @@
         <v>10341</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5644</v>
+        <v>5867</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>17038</v>
+        <v>16618</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.00557673518834572</v>
+        <v>0.005576735188345719</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003043905580399084</v>
+        <v>0.003164134467348673</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.009188137872016765</v>
+        <v>0.008961396811011536</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>28</v>
@@ -3350,19 +3350,19 @@
         <v>25853</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>17206</v>
+        <v>17438</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>38137</v>
+        <v>39099</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.007076475320706344</v>
+        <v>0.007076475320706346</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004709475027894887</v>
+        <v>0.004772980235505871</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01043868667644144</v>
+        <v>0.01070209842440526</v>
       </c>
     </row>
     <row r="42">
@@ -3379,19 +3379,19 @@
         <v>3949</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11076</v>
+        <v>11436</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.002195108693380062</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0006176337652080924</v>
+        <v>0.0006178176411283672</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.006156693149885604</v>
+        <v>0.006356493134340733</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3</v>
@@ -3400,19 +3400,19 @@
         <v>2597</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>7814</v>
+        <v>7356</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.001400289535326327</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0003737438359326864</v>
+        <v>0.000370093399801691</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.004214043237771763</v>
+        <v>0.003966675739543093</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6</v>
@@ -3421,19 +3421,19 @@
         <v>6546</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2580</v>
+        <v>2785</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>14465</v>
+        <v>13945</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.001791688200390425</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0007062159513357399</v>
+        <v>0.000762369219024912</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.003959259436412503</v>
+        <v>0.003816965570852206</v>
       </c>
     </row>
     <row r="43">
@@ -3463,19 +3463,19 @@
         <v>2610</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>7673</v>
+        <v>7712</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.001407271182877155</v>
+        <v>0.001407271182877154</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0003851027446241613</v>
+        <v>0.00038285829607524</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.004138026083666296</v>
+        <v>0.00415892747697405</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>3</v>
@@ -3484,19 +3484,19 @@
         <v>2610</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>7602</v>
+        <v>7135</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.0007142782463328959</v>
+        <v>0.000714278246332896</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0001972163407829712</v>
+        <v>0.0001929362294060059</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.002080824823668955</v>
+        <v>0.00195307102690299</v>
       </c>
     </row>
     <row r="44">
@@ -3513,19 +3513,19 @@
         <v>15378</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>8129</v>
+        <v>9030</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>26123</v>
+        <v>26601</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.008547473105853836</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.004518625358083906</v>
+        <v>0.005019073361942142</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01452025038155677</v>
+        <v>0.01478609215638628</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>24</v>
@@ -3534,19 +3534,19 @@
         <v>16609</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>10834</v>
+        <v>11249</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>25579</v>
+        <v>25296</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.008956799630256286</v>
+        <v>0.008956799630256284</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.005842248312291709</v>
+        <v>0.006066032464567826</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01379416083445576</v>
+        <v>0.0136412009941359</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>38</v>
@@ -3555,19 +3555,19 @@
         <v>31987</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>22433</v>
+        <v>22822</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>44049</v>
+        <v>46166</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.008755231948346416</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.006140233486660419</v>
+        <v>0.006246730438734412</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01205692455401534</v>
+        <v>0.0126363809967873</v>
       </c>
     </row>
     <row r="45">
@@ -3584,19 +3584,19 @@
         <v>19203</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>10691</v>
+        <v>11084</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>36548</v>
+        <v>36798</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.01067374855448814</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.005942476502723392</v>
+        <v>0.006160834717529739</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02031482627448987</v>
+        <v>0.02045352988251013</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>14</v>
@@ -3605,19 +3605,19 @@
         <v>10439</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>5822</v>
+        <v>5752</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>16673</v>
+        <v>17071</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.005629705876282504</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.003139396842477658</v>
+        <v>0.003102006164814546</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.008991475326126271</v>
+        <v>0.009206100725429768</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>29</v>
@@ -3626,19 +3626,19 @@
         <v>29642</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>19312</v>
+        <v>19253</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>46138</v>
+        <v>45081</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.008113581045585547</v>
+        <v>0.008113581045585549</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.005286058222828269</v>
+        <v>0.005269803573456717</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.01262855446505017</v>
+        <v>0.01233927052000418</v>
       </c>
     </row>
     <row r="46">
@@ -3655,19 +3655,19 @@
         <v>34281</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>22509</v>
+        <v>22107</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>55242</v>
+        <v>54299</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01905445064216557</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01251120925581525</v>
+        <v>0.0122877513418334</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03070571109739898</v>
+        <v>0.03018141750946347</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>51</v>
@@ -3676,19 +3676,19 @@
         <v>45511</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>32662</v>
+        <v>34159</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>63378</v>
+        <v>63342</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.0245430148357803</v>
+        <v>0.02454301483578029</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01761364034253493</v>
+        <v>0.01842124731477052</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03417779835923964</v>
+        <v>0.03415861969064062</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>78</v>
@@ -3697,19 +3697,19 @@
         <v>79792</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>62321</v>
+        <v>61558</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>105268</v>
+        <v>104968</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02184024065534946</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01705823833208489</v>
+        <v>0.01684921953335144</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02881353276527074</v>
+        <v>0.02873123042414923</v>
       </c>
     </row>
     <row r="47">
@@ -3726,19 +3726,19 @@
         <v>34404</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>23053</v>
+        <v>22676</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>51483</v>
+        <v>50017</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01912306108255959</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01281355237614733</v>
+        <v>0.01260402719611174</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02861640532615486</v>
+        <v>0.02780118733551595</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>30</v>
@@ -3747,19 +3747,19 @@
         <v>18881</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>13355</v>
+        <v>12593</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>26899</v>
+        <v>26726</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01018227872043066</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.00720178340544135</v>
+        <v>0.006790903579194124</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01450576984082448</v>
+        <v>0.01441248558951205</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>61</v>
@@ -3768,19 +3768,19 @@
         <v>53286</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>39948</v>
+        <v>39902</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>70383</v>
+        <v>69403</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01458505417659212</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01093429521732618</v>
+        <v>0.01092189398666904</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01926477731705879</v>
+        <v>0.01899675195702998</v>
       </c>
     </row>
     <row r="48">
@@ -3797,19 +3797,19 @@
         <v>99664</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>77339</v>
+        <v>78310</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>127794</v>
+        <v>129734</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.05539701664310996</v>
+        <v>0.05539701664310995</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.04298772905491541</v>
+        <v>0.04352773523516781</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.07103274417137927</v>
+        <v>0.07211115043975633</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>132</v>
@@ -3818,19 +3818,19 @@
         <v>87540</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>73287</v>
+        <v>72773</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>104375</v>
+        <v>105068</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.04720809856802009</v>
+        <v>0.04720809856802007</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.03952158080405717</v>
+        <v>0.0392447342141453</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.05628645976807187</v>
+        <v>0.05666016010369781</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>210</v>
@@ -3839,19 +3839,19 @@
         <v>187204</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>160617</v>
+        <v>161930</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>220295</v>
+        <v>216388</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.0512406279433283</v>
+        <v>0.05124062794332832</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.04396332548288558</v>
+        <v>0.04432267080719393</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.06029790122120197</v>
+        <v>0.05922861017630433</v>
       </c>
     </row>
     <row r="49">
@@ -3868,19 +3868,19 @@
         <v>201737</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>177452</v>
+        <v>176532</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>229877</v>
+        <v>228578</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1121328266652778</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.09863450900548049</v>
+        <v>0.09812319475751161</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1277740000577336</v>
+        <v>0.1270519646801044</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>313</v>
@@ -3889,19 +3889,19 @@
         <v>196407</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>172094</v>
+        <v>175306</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>218773</v>
+        <v>221769</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.105917061195772</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.09280553044928108</v>
+        <v>0.09453790095108509</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1179786381985803</v>
+        <v>0.1195941236463233</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>540</v>
@@ -3910,19 +3910,19 @@
         <v>398144</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>361691</v>
+        <v>363665</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>433728</v>
+        <v>434350</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1089779364684232</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.09900017567917981</v>
+        <v>0.09954060358888492</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1187179119506449</v>
+        <v>0.1188881120836209</v>
       </c>
     </row>
     <row r="50">
@@ -3939,19 +3939,19 @@
         <v>1363386</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1320371</v>
+        <v>1319920</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1401992</v>
+        <v>1401655</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.7578203146773854</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.7339111324101877</v>
+        <v>0.7336602410946446</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7792789662715305</v>
+        <v>0.7790916897825545</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2145</v>
@@ -3960,19 +3960,19 @@
         <v>1455796</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1425303</v>
+        <v>1423695</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1487070</v>
+        <v>1484312</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.7850718477240113</v>
+        <v>0.7850718477240112</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.7686274959056452</v>
+        <v>0.7677601796793267</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.8019365934279837</v>
+        <v>0.8004497125593323</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>3487</v>
@@ -3981,19 +3981,19 @@
         <v>2819183</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2767134</v>
+        <v>2767897</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2868613</v>
+        <v>2868723</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.7716521741450327</v>
+        <v>0.7716521741450328</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.7574056080411589</v>
+        <v>0.7576145469087801</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.785182055451572</v>
+        <v>0.7852120214069124</v>
       </c>
     </row>
     <row r="51">
